--- a/biology/Zoologie/Diplazontinae/Diplazontinae.xlsx
+++ b/biology/Zoologie/Diplazontinae/Diplazontinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diplazontinae sont une sous-famille d'insectes hyménoptères du sous-ordre des Apocrites (les Apocrites sont caractérisés par un net étranglement entre le thorax et l'abdomen) et de la famille des Ichneumonidae.
 Ce sont des endoparasites de Syrphidae : les femelles pondent dans les œufs ou les larves de leurs hôtes, les Diplazontinae adultes émergent des pupes.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 mai 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (10 mai 2019) :
 Bioblapsis Foerster, 1868
 Campocraspedon Uchida, 1957
 Daschia Diller, 1970
@@ -558,7 +572,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Henry Lorenz Viereck, « A list of families and subfamilies of ichneumon-flies or the super-family Ichneumonoidea (Hymenoptera) », Proceedings of the Biological Society of Washington, Washington, Biological Society of Washington (d), vol. 31,‎ 1918, p. 69-74 (ISSN 0006-324X et 1943-6327, OCLC 1536434, lire en ligne)</t>
         </is>
